--- a/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 25,7</t>
+          <t>10,86; 25,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 32,41</t>
+          <t>16,93; 33,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,51</t>
+          <t>1,69; 9,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 17,09</t>
+          <t>6,29; 17,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 22,89</t>
+          <t>8,61; 22,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,21</t>
+          <t>2,26; 10,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 19,5</t>
+          <t>9,68; 19,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 25,6</t>
+          <t>14,82; 24,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,38</t>
+          <t>2,53; 8,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,29</t>
+          <t>13,34; 19,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,45</t>
+          <t>13,53; 19,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 11,55</t>
+          <t>6,62; 11,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,95</t>
+          <t>7,09; 11,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,6</t>
+          <t>10,54; 16,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,73</t>
+          <t>5,85; 10,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 14,71</t>
+          <t>10,74; 14,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 17,04</t>
+          <t>12,94; 17,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,27</t>
+          <t>6,92; 10,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,39</t>
+          <t>14,29; 19,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,25</t>
+          <t>13,54; 18,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,43</t>
+          <t>10,65; 15,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,01</t>
+          <t>9,72; 14,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 15,12</t>
+          <t>10,76; 15,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,08</t>
+          <t>10,34; 14,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 15,71</t>
+          <t>12,61; 15,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 16,19</t>
+          <t>12,86; 16,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,22</t>
+          <t>11,11; 14,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 17,53</t>
+          <t>12,07; 17,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,26; 21,16</t>
+          <t>15,31; 21,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 18,17</t>
+          <t>13,02; 18,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 17,29</t>
+          <t>11,97; 17,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 16,9</t>
+          <t>11,81; 17,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 20,97</t>
+          <t>15,67; 20,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 16,55</t>
+          <t>12,62; 16,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 18,3</t>
+          <t>14,26; 18,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,87; 18,77</t>
+          <t>14,86; 18,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,56</t>
+          <t>12,78; 17,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 21,73</t>
+          <t>16,28; 21,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 18,49</t>
+          <t>14,01; 18,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,11</t>
+          <t>11,96; 16,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 15,75</t>
+          <t>11,26; 15,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,99</t>
+          <t>13,23; 17,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,93</t>
+          <t>12,85; 15,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,69</t>
+          <t>14,44; 17,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 17,67</t>
+          <t>14,3; 17,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 17,12</t>
+          <t>14,44; 16,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,4; 18,88</t>
+          <t>16,29; 18,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,32; 14,66</t>
+          <t>12,26; 14,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,5</t>
+          <t>11,38; 13,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,34; 14,59</t>
+          <t>12,42; 14,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,7</t>
+          <t>12,44; 14,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,11; 14,92</t>
+          <t>13,23; 14,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,66; 16,37</t>
+          <t>14,66; 16,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 14,38</t>
+          <t>12,76; 14,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 25,3</t>
+          <t>10,33; 25,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 33,06</t>
+          <t>16,25; 31,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,25</t>
+          <t>1,67; 8,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 21,74</t>
+          <t>7,94; 21,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 17,53</t>
+          <t>6,38; 16,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 22,66</t>
+          <t>8,56; 23,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 10,94</t>
+          <t>2,35; 10,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,96</t>
+          <t>5,0; 14,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,68; 19,0</t>
+          <t>10,04; 19,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,82; 24,83</t>
+          <t>15,01; 25,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,05</t>
+          <t>2,54; 8,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 15,55</t>
+          <t>7,23; 15,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,59</t>
+          <t>13,35; 19,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,68</t>
+          <t>13,37; 19,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 11,71</t>
+          <t>6,65; 11,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,16; 28,85</t>
+          <t>19,43; 28,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,6</t>
+          <t>7,27; 11,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,55</t>
+          <t>10,71; 16,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,24</t>
+          <t>6,12; 10,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 22,06</t>
+          <t>16,58; 22,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,55</t>
+          <t>10,97; 14,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 17,16</t>
+          <t>12,86; 17,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,38</t>
+          <t>6,91; 10,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,93; 24,0</t>
+          <t>18,97; 24,49</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 19,16</t>
+          <t>14,27; 19,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,54; 18,36</t>
+          <t>13,68; 18,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,34</t>
+          <t>10,78; 15,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 17,5</t>
+          <t>11,87; 17,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,13</t>
+          <t>9,78; 14,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,04</t>
+          <t>10,82; 15,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 14,38</t>
+          <t>10,21; 14,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,42</t>
+          <t>13,25; 17,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,61; 15,8</t>
+          <t>12,55; 15,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 16,05</t>
+          <t>12,84; 16,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,18</t>
+          <t>11,21; 14,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 16,8</t>
+          <t>13,1; 16,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 17,39</t>
+          <t>11,85; 17,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,16</t>
+          <t>15,47; 21,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,35</t>
+          <t>13,01; 18,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 22,83</t>
+          <t>15,44; 22,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 17,02</t>
+          <t>11,95; 17,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 17,05</t>
+          <t>11,54; 16,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,67; 20,91</t>
+          <t>15,46; 21,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 14,61</t>
+          <t>7,56; 14,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,39</t>
+          <t>12,69; 16,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,17</t>
+          <t>14,42; 18,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,84</t>
+          <t>14,96; 19,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,3</t>
+          <t>11,79; 17,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,17</t>
+          <t>12,96; 17,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,28; 21,61</t>
+          <t>16,59; 21,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 18,74</t>
+          <t>13,78; 18,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,08; 17,3</t>
+          <t>12,26; 17,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,18</t>
+          <t>11,68; 16,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,5</t>
+          <t>11,41; 15,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 17,84</t>
+          <t>13,23; 17,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,0</t>
+          <t>8,19; 11,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,85; 15,8</t>
+          <t>12,89; 15,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,44; 17,81</t>
+          <t>14,4; 17,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,3; 17,56</t>
+          <t>14,22; 17,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 13,56</t>
+          <t>10,52; 13,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,98</t>
+          <t>14,45; 17,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,29; 18,99</t>
+          <t>16,22; 18,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,26; 14,69</t>
+          <t>12,24; 14,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,53</t>
+          <t>15,29; 18,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,69</t>
+          <t>11,29; 13,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,42; 14,72</t>
+          <t>12,43; 14,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 14,68</t>
+          <t>12,43; 14,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,58; 14,37</t>
+          <t>11,89; 14,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 14,96</t>
+          <t>13,26; 14,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,66; 16,34</t>
+          <t>14,62; 16,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,76; 14,34</t>
+          <t>12,73; 14,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,81; 15,92</t>
+          <t>13,92; 15,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 25,75</t>
+          <t>13,55; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 31,92</t>
+          <t>15,04; 20,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,76</t>
+          <t>6,1; 10,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 21,78</t>
+          <t>18,0; 26,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 16,78</t>
+          <t>7,5; 11,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 23,06</t>
+          <t>10,91; 16,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,3</t>
+          <t>5,85; 9,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 14,08</t>
+          <t>14,6; 19,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,22</t>
+          <t>11,33; 14,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 25,95</t>
+          <t>13,92; 17,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,35</t>
+          <t>6,54; 9,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,2</t>
+          <t>17,04; 21,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>13,01%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,35; 19,54</t>
+          <t>14,27; 19,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 19,77</t>
+          <t>13,68; 18,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,74</t>
+          <t>10,78; 15,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,43; 28,12</t>
+          <t>6,16; 15,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,95</t>
+          <t>9,78; 14,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 16,06</t>
+          <t>10,82; 15,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,5</t>
+          <t>10,21; 14,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,15</t>
+          <t>12,96; 17,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,97; 14,75</t>
+          <t>12,55; 15,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 17,23</t>
+          <t>12,84; 16,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 10,32</t>
+          <t>11,21; 14,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 24,49</t>
+          <t>8,63; 15,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>13,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 19,17</t>
+          <t>11,85; 17,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,42</t>
+          <t>15,47; 21,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,45</t>
+          <t>13,01; 18,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,69</t>
+          <t>15,02; 22,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,0</t>
+          <t>11,95; 17,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 15,13</t>
+          <t>11,54; 16,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 14,37</t>
+          <t>15,46; 21,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,25; 17,33</t>
+          <t>4,98; 13,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 15,69</t>
+          <t>12,69; 16,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 16,02</t>
+          <t>14,42; 18,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 14,19</t>
+          <t>14,96; 19,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 16,75</t>
+          <t>8,83; 16,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 17,49</t>
+          <t>12,96; 17,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 21,43</t>
+          <t>16,59; 21,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 18,43</t>
+          <t>13,78; 18,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 22,47</t>
+          <t>11,71; 16,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,26</t>
+          <t>11,68; 16,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,54; 16,57</t>
+          <t>11,41; 15,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 21,27</t>
+          <t>13,23; 17,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 14,67</t>
+          <t>7,21; 11,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 16,46</t>
+          <t>12,89; 15,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,29</t>
+          <t>14,4; 17,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,02</t>
+          <t>14,22; 17,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,43</t>
+          <t>9,71; 13,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,27 +1216,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1246,32 +1246,32 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,3</t>
+          <t>14,45; 17,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,52</t>
+          <t>16,22; 18,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,52</t>
+          <t>12,24; 14,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 17,34</t>
+          <t>11,83; 17,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,17</t>
+          <t>11,29; 13,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,73</t>
+          <t>12,43; 14,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 17,87</t>
+          <t>12,43; 14,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 11,91</t>
+          <t>10,16; 13,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,98</t>
+          <t>13,26; 14,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,4; 17,65</t>
+          <t>14,62; 16,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,22; 17,44</t>
+          <t>12,73; 14,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,52; 13,59</t>
+          <t>12,02; 15,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,71%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,59%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,96%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,57%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,18%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14,04%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>15,49%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>14,45; 17,05</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,22; 18,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>12,24; 14,65</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,29; 18,64</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>11,29; 13,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 14,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 14,81</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 14,46</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>13,26; 14,89</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>14,62; 16,35</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>12,73; 14,4</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,92; 15,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,55; 19,4</t>
+          <t>13,83; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 20,99</t>
+          <t>14,96; 20,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,7</t>
+          <t>6,12; 10,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,0; 26,39</t>
+          <t>17,96; 26,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 11,71</t>
+          <t>7,46; 11,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 16,36</t>
+          <t>10,95; 16,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,81</t>
+          <t>5,88; 10,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,29</t>
+          <t>14,69; 19,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 14,59</t>
+          <t>11,09; 14,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 17,87</t>
+          <t>13,77; 17,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,4</t>
+          <t>6,45; 9,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 21,88</t>
+          <t>17,13; 22,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 19,17</t>
+          <t>14,17; 19,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,42</t>
+          <t>13,75; 18,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,45</t>
+          <t>10,98; 15,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,27</t>
+          <t>5,86; 15,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,0</t>
+          <t>9,7; 13,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 15,13</t>
+          <t>10,81; 15,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 14,37</t>
+          <t>10,17; 14,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,01</t>
+          <t>12,93; 17,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 15,69</t>
+          <t>12,65; 15,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 16,02</t>
+          <t>12,87; 15,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 14,19</t>
+          <t>10,99; 14,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 15,28</t>
+          <t>9,06; 15,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 17,49</t>
+          <t>12,08; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 21,43</t>
+          <t>15,39; 21,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,01; 18,43</t>
+          <t>12,98; 18,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,0</t>
+          <t>14,97; 22,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,26</t>
+          <t>12,18; 17,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 16,57</t>
+          <t>11,72; 16,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 21,27</t>
+          <t>15,5; 21,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 13,54</t>
+          <t>4,71; 13,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 16,46</t>
+          <t>12,71; 16,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,29</t>
+          <t>14,28; 18,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,02</t>
+          <t>14,9; 18,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 16,39</t>
+          <t>8,22; 16,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,3</t>
+          <t>12,96; 17,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,52</t>
+          <t>16,21; 21,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,52</t>
+          <t>14,08; 18,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,74</t>
+          <t>11,75; 16,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,17</t>
+          <t>11,82; 16,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,73</t>
+          <t>11,56; 15,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 17,87</t>
+          <t>13,25; 17,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,24</t>
+          <t>7,18; 11,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,98</t>
+          <t>12,87; 15,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 17,65</t>
+          <t>14,44; 17,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 17,44</t>
+          <t>14,21; 17,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 13,01</t>
+          <t>9,76; 13,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,05</t>
+          <t>14,4; 16,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 18,93</t>
+          <t>16,3; 18,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 14,65</t>
+          <t>12,39; 14,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,26</t>
+          <t>12,39; 17,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,29; 13,64</t>
+          <t>11,29; 13,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,68</t>
+          <t>12,23; 14,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,81</t>
+          <t>12,43; 14,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,16; 13,66</t>
+          <t>10,16; 13,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 14,89</t>
+          <t>13,16; 14,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,62; 16,35</t>
+          <t>14,67; 16,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 14,4</t>
+          <t>12,65; 14,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,02; 15,0</t>
+          <t>12,04; 15,0</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna quemadura solar en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>113575</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124091</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54175</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>136892</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64947</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>94227</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51322</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>114482</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>178522</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>218318</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>105497</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>251375</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95808; 134426</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>104366; 144081</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41204; 72199</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>113463; 168211</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>51367; 80777</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>76114; 116293</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39412; 66986</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>99155; 132285</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>153230; 203861</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>191732; 247963</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>86668; 124880</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>223742; 289497</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>159469</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>160640</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>131732</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>137250</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>112324</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>130685</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>126252</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142352</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>271794</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>291325</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>257984</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>279602</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>135778; 184281</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>138637; 188197</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>111159; 155785</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69804; 183901</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>93623; 134694</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>110344; 154326</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105443; 147807</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>123811; 163870</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>243335; 305192</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>261074; 323447</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>225285; 288282</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>194653; 327356</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99421</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>135541</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>116418</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>128663</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>98818</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>109700</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>140292</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>92016</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>198239</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>245241</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>256709</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>220679</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81865; 119121</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>115328; 158882</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97212; 137734</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>105120; 155644</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>83092; 118718</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>89992; 130385</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>120184; 163382</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43928; 124246</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>172826; 222837</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>216624; 274555</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>227102; 287625</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>134393; 268358</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>141002</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>177632</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>150830</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>129211</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>142853</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>140079</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>101593</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>283855</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>317711</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>310410</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>230803</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>121824; 162700</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>153024; 203352</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>131010; 174711</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>108916; 156715</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>122388; 166239</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>120160; 164272</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>137279; 184232</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>78558; 123761</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>254258; 315365</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>286358; 349594</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>279454; 341746</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>197357; 265548</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>513467</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>597905</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>453154</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>532017</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>418942</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>474690</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>477446</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>450443</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>932409</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1072595</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>930600</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>982460</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>470835; 553488</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>553901; 642646</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>417035; 500918</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>427918; 596289</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>380482; 456084</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>430882; 516401</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>437175; 516935</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>371769; 501114</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>873613; 990516</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1015275; 1135391</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>870594; 993009</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>856184; 1066815</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
